--- a/data/trans_camb/P45C_R1-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.645047459059208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.06776094289102468</v>
+        <v>-0.06776094289102502</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.4535398242265594</v>
@@ -655,7 +655,7 @@
         <v>0.002098361484102751</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7809540518054245</v>
+        <v>0.7809540518054242</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.7897519293124768</v>
@@ -664,7 +664,7 @@
         <v>-0.649542869614219</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4882396149249613</v>
+        <v>0.4882396149249617</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.276488734325626</v>
+        <v>-3.421966098893434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.544614622651455</v>
+        <v>-3.346193591087768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.187571714676034</v>
+        <v>-2.089124133004562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.501330386917321</v>
+        <v>-1.414371512888451</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.037736521998301</v>
+        <v>-0.942198638747379</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.4351996291766389</v>
+        <v>-0.3228842234115167</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.69617496456038</v>
+        <v>-1.674678156943563</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.568479717661189</v>
+        <v>-1.495850834675458</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.63707039078928</v>
+        <v>-0.6139612372340323</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.154915145680218</v>
+        <v>0.06716914322069899</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1651011956815135</v>
+        <v>-0.09059478668363596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.122999057471762</v>
+        <v>2.122204431375252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3373925292196332</v>
+        <v>0.422522530569496</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9231828143627293</v>
+        <v>0.9358013242611776</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.892895340962965</v>
+        <v>2.242733195695396</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06998069186730801</v>
+        <v>0.009710433078069944</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2461109755136461</v>
+        <v>0.1991315099580995</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.596818764935164</v>
+        <v>1.621783998873974</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5876353864384443</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.02420521526106773</v>
+        <v>-0.02420521526106785</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3492796925092231</v>
@@ -760,7 +760,7 @@
         <v>0.001615988309715639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6014276509093753</v>
+        <v>0.601427650909375</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4198565176204666</v>
@@ -769,7 +769,7 @@
         <v>-0.3453170510375888</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2595632588896714</v>
+        <v>0.2595632588896716</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7827766826739964</v>
+        <v>-0.7887076845660268</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8533661058776687</v>
+        <v>-0.8292548865323717</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5721542138569423</v>
+        <v>-0.5943556088289774</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7590706827296434</v>
+        <v>-0.7968242106256949</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5777491005939853</v>
+        <v>-0.5242381144571405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2918863573386585</v>
+        <v>-0.2008792122836508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.690326992228087</v>
+        <v>-0.6543154323470776</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6460921244683581</v>
+        <v>-0.6152044546980694</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2789671895168154</v>
+        <v>-0.2591506514960449</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1336997068485152</v>
+        <v>0.09904021669974104</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.005302161841201899</v>
+        <v>0.1049313060090025</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.253900111991236</v>
+        <v>1.124622632881668</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5854048479309275</v>
+        <v>0.6078050199551099</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.135189839544126</v>
+        <v>1.227785185328901</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.318265459339731</v>
+        <v>2.913539114340188</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06063532949270353</v>
+        <v>0.0580174342405825</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1920311766910477</v>
+        <v>0.1536612370563883</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.205363761408042</v>
+        <v>1.227472131591925</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.6158361951403443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.2182525408187586</v>
+        <v>-0.2182525408187591</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9891461032784404</v>
@@ -878,7 +878,7 @@
         <v>-0.5501846485254782</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.3446029065611644</v>
+        <v>-0.3446029065611646</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.308650879285392</v>
+        <v>-1.312349948938967</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.493072698428055</v>
+        <v>-1.502461946799454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.235158554159125</v>
+        <v>-1.196716752104094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.250394396475762</v>
+        <v>-0.3144861116715584</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.52673126068677</v>
+        <v>-1.428212390021445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.457310367768536</v>
+        <v>-1.435672616145389</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5194084707663368</v>
+        <v>-0.3774046657143221</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.302398603783253</v>
+        <v>-1.280363507754636</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.082132094356729</v>
+        <v>-1.003707566725042</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.501620848813773</v>
+        <v>0.5100647776692299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1879910620042756</v>
+        <v>0.1499842600063941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7537873085826499</v>
+        <v>0.7686945007769669</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.188327761419649</v>
+        <v>2.123984200558017</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4847334607810773</v>
+        <v>0.394076442306366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4869136593961423</v>
+        <v>0.5711854747354472</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.06438310020519</v>
+        <v>1.091050345898354</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0637797615601926</v>
+        <v>0.0534598073474147</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3371238506298191</v>
+        <v>0.4049013514516345</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4895053793808369</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.173480860068595</v>
+        <v>-0.1734808600685954</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.68773374714655</v>
@@ -983,7 +983,7 @@
         <v>-0.4083452154872412</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2557631306405524</v>
+        <v>-0.2557631306405526</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7286786995647737</v>
+        <v>-0.731133168922582</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8444849681487291</v>
+        <v>-0.8314100062234198</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6938829357782902</v>
+        <v>-0.6821462750376194</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1774298075534707</v>
+        <v>-0.1892215486499431</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7549807603176188</v>
+        <v>-0.7353834877230317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7330387645679396</v>
+        <v>-0.7193459541561875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3021628968738251</v>
+        <v>-0.2224043096470045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7110409567388449</v>
+        <v>-0.7010403135343473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6053422462731249</v>
+        <v>-0.59174133520981</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8342342535335496</v>
+        <v>0.8067942306268956</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3495917479400144</v>
+        <v>0.4112521594400858</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9495457144607949</v>
+        <v>1.142963758170621</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.370907752412566</v>
+        <v>2.120281960414522</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.578365253306264</v>
+        <v>0.5400582307298006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5473222036898995</v>
+        <v>0.7897182243025752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.1059431605898</v>
+        <v>1.03035211605514</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1235664450296009</v>
+        <v>0.0838097002930735</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3368879503115402</v>
+        <v>0.4735348028814913</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.9830106382890104</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4032544346574097</v>
+        <v>-0.4032544346574098</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1451305811736888</v>
@@ -1083,7 +1083,7 @@
         <v>-0.6277737837819828</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2939088488829506</v>
+        <v>-0.2939088488829508</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4942181453666369</v>
@@ -1092,7 +1092,7 @@
         <v>-0.8128861484843958</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.3524376551944594</v>
+        <v>-0.3524376551944592</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.859517615125156</v>
+        <v>-1.93804938693378</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.011437055823182</v>
+        <v>-2.026612483829527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.659223053079375</v>
+        <v>-1.536028578555078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.224377748202383</v>
+        <v>-1.17418487637421</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.848093788072451</v>
+        <v>-1.669253691264017</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.526890557670699</v>
+        <v>-1.397301186937661</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.308672668281748</v>
+        <v>-1.253905475798197</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.49236717345354</v>
+        <v>-1.538782883432755</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.135101564352887</v>
+        <v>-1.11323653387185</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2410171247096579</v>
+        <v>0.1650959473808298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1511547799987066</v>
+        <v>0.1331003000012853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8646301995078731</v>
+        <v>0.828314432580787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.064320684975455</v>
+        <v>1.12957300722148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3364530644327926</v>
+        <v>0.427397336089795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6683414858701235</v>
+        <v>0.668921544412595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.235433857580177</v>
+        <v>0.2483159529559246</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.04728077368158433</v>
+        <v>-0.06192658576346621</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4414118152699339</v>
+        <v>0.4596600177478772</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5817924896012076</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2386651703896262</v>
+        <v>-0.2386651703896263</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.09283824884281827</v>
@@ -1188,7 +1188,7 @@
         <v>-0.4015791729380558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1880098779253591</v>
+        <v>-0.1880098779253592</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3031478950931228</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4986152919994257</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2161813246344812</v>
+        <v>-0.2161813246344811</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8095887183359199</v>
+        <v>-0.8463561359463869</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8747051247368739</v>
+        <v>-0.8836662431600782</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.706916812648789</v>
+        <v>-0.6800134805183047</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5967228422735064</v>
+        <v>-0.5809430752461645</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7970700836000524</v>
+        <v>-0.7774587686226591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6494336603344213</v>
+        <v>-0.6301362055122833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6329662940372491</v>
+        <v>-0.600668181955049</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7658248217047996</v>
+        <v>-0.7572634406128836</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5442387975746213</v>
+        <v>-0.5494074178389613</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.474460362092934</v>
+        <v>0.2579026258028972</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4242306371594755</v>
+        <v>0.3377545434462808</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8082349659784683</v>
+        <v>0.8026367947840158</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.219000223244737</v>
+        <v>1.226132031083514</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4772077808603871</v>
+        <v>0.5008528779258747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6635619220814384</v>
+        <v>0.6708994704529164</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2411058351867299</v>
+        <v>0.2432942440997994</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0635412095563143</v>
+        <v>0.03622458047850392</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3729701979570626</v>
+        <v>0.3708887779357625</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.05522266561919172</v>
+        <v>-0.1052694704301669</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.440674489402752</v>
+        <v>-1.373946795083119</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6050680100898926</v>
+        <v>-0.66618440691956</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.880998940759605</v>
+        <v>-4.525705697817663</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.672714194505619</v>
+        <v>-5.010051924271518</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.739787908159601</v>
+        <v>-4.0159202932343</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.312500004162983</v>
+        <v>-1.235460513945391</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.326911478565687</v>
+        <v>-2.319866826309216</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.410156266313793</v>
+        <v>-1.368961950894197</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.554280766119623</v>
+        <v>3.353061148751102</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.469307316946006</v>
+        <v>1.517257356690985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.481365453904866</v>
+        <v>2.495933589892752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8357355440988432</v>
+        <v>0.5918924020952404</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1226368908228234</v>
+        <v>-0.07322370116089798</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7579377390694721</v>
+        <v>0.6359275284662527</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.549614227593203</v>
+        <v>1.665783703665917</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2803048420096217</v>
+        <v>0.2680299682610635</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.33155742780211</v>
+        <v>1.213051957938774</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.59561629472336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3470222558386394</v>
+        <v>-0.3470222558386393</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.06945698793637811</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1604507684129179</v>
+        <v>-0.2985127447310054</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7535499903012195</v>
+        <v>-0.7462133078504375</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3930208595112156</v>
+        <v>-0.3694225645530946</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7976462601061226</v>
+        <v>-0.8163261774692009</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8677553728678838</v>
+        <v>-0.8551145596466856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6812616808353305</v>
+        <v>-0.6857617096779671</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.459664056866448</v>
+        <v>-0.4488511470453634</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7323999882141625</v>
+        <v>-0.7367662930571671</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4589057276417285</v>
+        <v>-0.4572863322001604</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6.694270502813549</v>
+        <v>5.934601471421498</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.980987772416477</v>
+        <v>3.611732220179106</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.449225984559375</v>
+        <v>5.355119832833197</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5618203009466929</v>
+        <v>0.3510124449899598</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1875983825818524</v>
+        <v>0.07445657796345613</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4597916130450719</v>
+        <v>0.4102067088631893</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.127986554612949</v>
+        <v>1.208558106899196</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3109893403240117</v>
+        <v>0.2374344479864295</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9694062610432232</v>
+        <v>0.8714022586787756</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.5112797560085388</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.08455529787239363</v>
+        <v>-0.08455529787239381</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.2056663070864122</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.012493272403196</v>
+        <v>-1.052293043555155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.396820318040502</v>
+        <v>-1.327417696367494</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6631858348380567</v>
+        <v>-0.6665301167031749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7042982742388437</v>
+        <v>-0.6264399867674164</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.097999870724171</v>
+        <v>-1.092583404518472</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7193275610074352</v>
+        <v>-0.711309920086683</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6500810787887324</v>
+        <v>-0.6703030158357495</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.060450128681403</v>
+        <v>-1.080792419084565</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4840433835484816</v>
+        <v>-0.458814017893232</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2219153560573601</v>
+        <v>0.2167605843846556</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1581683983750359</v>
+        <v>-0.1398657018385386</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6700524052351793</v>
+        <v>0.7169110161099655</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5090285444988865</v>
+        <v>0.5541690088700605</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04070314880419152</v>
+        <v>0.06702575066355668</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5455027579494356</v>
+        <v>0.4491387382335743</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.276619273424948</v>
+        <v>0.1838949471407029</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2250670401344459</v>
+        <v>-0.2115568059222518</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4503352599990001</v>
+        <v>0.4705080676238525</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3116871546813187</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05154673130973248</v>
+        <v>-0.05154673130973259</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1238093405549659</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4986757075531335</v>
+        <v>-0.5039784045043988</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6565130562135421</v>
+        <v>-0.6589493070505438</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3281995127795224</v>
+        <v>-0.3276674955191483</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3565013866511221</v>
+        <v>-0.3268020864126742</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5537975039658669</v>
+        <v>-0.5443186895974538</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.359719318564709</v>
+        <v>-0.3602879079287956</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3407472599208746</v>
+        <v>-0.3474333066123113</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5563880931976045</v>
+        <v>-0.5626599126592712</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2501547145698069</v>
+        <v>-0.2428124876683543</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1710683348577762</v>
+        <v>0.1951942375352519</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1022880186066165</v>
+        <v>-0.09654411354288074</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4943059620102976</v>
+        <v>0.5440066296667738</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3962296833722153</v>
+        <v>0.4597922370212468</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03061706684531618</v>
+        <v>0.06719345388258945</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4271913238368624</v>
+        <v>0.3584133726820771</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.194190249114066</v>
+        <v>0.1234689770846708</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1613918621940401</v>
+        <v>-0.1442681754786602</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3195723176545212</v>
+        <v>0.3372643695910587</v>
       </c>
     </row>
     <row r="34">
